--- a/biology/Botanique/Henri_Bouschet/Henri_Bouschet.xlsx
+++ b/biology/Botanique/Henri_Bouschet/Henri_Bouschet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Joseph-Marie-Saturnin-Henri Bouschet de Bernard, dit Henri Bouschet, né le 29 novembre 1815 à Montpellier[1] et mort le 8 juin 1881[2] dans la même commune, est, comme son père Louis Bouschet, un créateur français de cépages hybrides de vignes du milieu du XIXe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Joseph-Marie-Saturnin-Henri Bouschet de Bernard, dit Henri Bouschet, né le 29 novembre 1815 à Montpellier et mort le 8 juin 1881 dans la même commune, est, comme son père Louis Bouschet, un créateur français de cépages hybrides de vignes du milieu du XIXe siècle.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Bouschet œuvra au Domaine de la Calmette, à Mauguio (Hérault, France)[3]. Il s'inscrivit dans la continuité de son père, Louis Bouschet, qui, dès 1829, avait procédé au croisement de deux cépages, le Teinturier et l'Aramon, pour obtenir une vigne plus productive et au jus plus coloré[4],[5].
-Propriétaire foncier et viticulteur, Henri Bouschet était membre de la Société centrale d'agriculture de l'Hérault et publia régulièrement le résultat des travaux de son père puis de ses propres travaux agronomiques. Il présenta ses cépages lors de l'Exposition universelle de Lyon en 1872. À la fin de sa vie, il œuvra pour diffuser les méthodes de lutte conte le phylloxéra, étudiant puis recommandant, comme Jules Émile Planchon, le greffage de plants français sur des porte-greffes américains[6],[7],[8].
-C'est d'ailleurs le botaniste Jules Émile Planchon qui écrivit sa nécrologie dans la revue La vigne américaine et la viticulture en Europe, à la suite de son décès en juin 1881[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Bouschet œuvra au Domaine de la Calmette, à Mauguio (Hérault, France). Il s'inscrivit dans la continuité de son père, Louis Bouschet, qui, dès 1829, avait procédé au croisement de deux cépages, le Teinturier et l'Aramon, pour obtenir une vigne plus productive et au jus plus coloré,.
+Propriétaire foncier et viticulteur, Henri Bouschet était membre de la Société centrale d'agriculture de l'Hérault et publia régulièrement le résultat des travaux de son père puis de ses propres travaux agronomiques. Il présenta ses cépages lors de l'Exposition universelle de Lyon en 1872. À la fin de sa vie, il œuvra pour diffuser les méthodes de lutte conte le phylloxéra, étudiant puis recommandant, comme Jules Émile Planchon, le greffage de plants français sur des porte-greffes américains.
+C'est d'ailleurs le botaniste Jules Émile Planchon qui écrivit sa nécrologie dans la revue La vigne américaine et la viticulture en Europe, à la suite de son décès en juin 1881.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Hybrides créés par Henri Bouschet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Alicante Bouschet[10],[11]
-Grand Noir de la Calmette[12]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alicante Bouschet,
+Grand Noir de la Calmette</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De l'Engraissement d'un troupeau à la bergerie avec du marc de raisin distillé, comme moyen de se procurer des fumiers abondants, 1856
 Rapport de la Commission de la Société centrale d'agriculture de l'Hérault, nommée pour procéder à l'examen de divers instruments employés pour le soufrage des vignes, 1857
@@ -584,7 +602,7 @@
 Des Effets de l'atavisme et de la fécondation sur la variation des raisins, 1865
 Du Commerce des raisins de table du Midi expédiés sur les marchés de Paris et des villes du Nord, et des tarifs des chemins de fer devant l'enquête agricole, 1867
 Concours ouvert par la Société d'horticulture de l'Hérault, pour la culture et la bonne direction des arbres fruitiers, spécialement du pêcher et du poirier. Rapport de la commission chargée de visiter ces cultures, 1868
-De la Taille des vignes après une forte grêle pendant la végétation, 1870, dans Annales de la Société d'agriculture, sciences, arts et belles-lettres d'Indre-et-Loire, Tours, 1871, [1], tiré à part : impr. de Grollier.
+De la Taille des vignes après une forte grêle pendant la végétation, 1870, dans Annales de la Société d'agriculture, sciences, arts et belles-lettres d'Indre-et-Loire, Tours, 1871, , tiré à part : impr. de Grollier.
 Les Raisins du verger, ou Choix des meilleurs et des plus beaux raisins de table pour le verger dans le midi de la France, 1870
 Trois nouveaux Muscats obtenus par la fécondation croisée et le semis, 1872
 Les Vignes américaines devant le congrès interdépartemental tenu le 24 juin 1875 à Montpellier, 1875
